--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac42939\Desktop\Mobil Automation\original (1)\UI-Automation\src\test\resources\com\OSMOSE\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA7EC5-9D36-4096-9758-AA6730C04E22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C120CFA4-5640-418A-9277-CCD676C2C156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="CreateAccountTest" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Raman</t>
   </si>
@@ -72,6 +68,12 @@
   </si>
   <si>
     <t>Guy Markers</t>
+  </si>
+  <si>
+    <t>Pole</t>
+  </si>
+  <si>
+    <t>Pole Restoration</t>
   </si>
 </sst>
 </file>
@@ -445,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -578,13 +580,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -597,8 +601,19 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C120CFA4-5640-418A-9277-CCD676C2C156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ED38C219-2071-4222-BC2F-5DBB436AA0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -13,10 +13,14 @@
     <sheet name="verifyTheProductLink" sheetId="7" r:id="rId3"/>
     <sheet name="clickOnOuLink" sheetId="5" r:id="rId4"/>
     <sheet name="verifyTheSearch" sheetId="6" r:id="rId5"/>
-    <sheet name="CreateAccountTest" sheetId="4" r:id="rId6"/>
+    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId6"/>
+    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId7"/>
+    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId8"/>
+    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId9"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L7"/>
+  <oleSize ref="A1:R17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Raman</t>
   </si>
@@ -64,9 +68,6 @@
     <t>Hyde@2317</t>
   </si>
   <si>
-    <t>SearchItem</t>
-  </si>
-  <si>
     <t>Guy Markers</t>
   </si>
   <si>
@@ -74,6 +75,12 @@
   </si>
   <si>
     <t>Pole Restoration</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>"    "</t>
   </si>
 </sst>
 </file>
@@ -443,6 +450,34 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
@@ -582,9 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -596,50 +629,84 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" activeCellId="1" sqref="A1 C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ED38C219-2071-4222-BC2F-5DBB436AA0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4FDF7D68-4A23-4D54-990D-A3C61DE57FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId8"/>
     <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId9"/>
     <sheet name="CreateAccountTest" sheetId="4" r:id="rId10"/>
+    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R17"/>
+  <oleSize ref="A1:N3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Raman</t>
   </si>
@@ -77,10 +78,13 @@
     <t>Pole Restoration</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>"    "</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>SearchItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
   </si>
 </sst>
 </file>
@@ -478,6 +482,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D0FF7-8259-4C88-ABF2-E9337205FC0D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
@@ -615,23 +644,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -640,14 +674,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -658,7 +700,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,6 +708,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -676,17 +723,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="A1 C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -696,14 +749,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4FDF7D68-4A23-4D54-990D-A3C61DE57FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20EB87-C8E7-4780-A522-DF837644B312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -19,9 +24,13 @@
     <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId9"/>
     <sheet name="CreateAccountTest" sheetId="4" r:id="rId10"/>
     <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId11"/>
+    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId12"/>
+    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId13"/>
+    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId14"/>
+    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId15"/>
+    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Raman</t>
   </si>
@@ -85,6 +94,36 @@
   </si>
   <si>
     <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t>AskOsmoseSearch</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>TypeJointUse</t>
+  </si>
+  <si>
+    <t>Joint Use</t>
+  </si>
+  <si>
+    <t>TypeJointUseInSearchbox</t>
+  </si>
+  <si>
+    <t>NoResults</t>
+  </si>
+  <si>
+    <t>Noresultsfound</t>
+  </si>
+  <si>
+    <t>TypeJointUseTextUpdation</t>
+  </si>
+  <si>
+    <t>TypePoleReplacementTextUpdation</t>
+  </si>
+  <si>
+    <t>Pole Replacement</t>
   </si>
 </sst>
 </file>
@@ -486,20 +525,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D0FF7-8259-4C88-ABF2-E9337205FC0D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DA5B9-7278-497C-93B8-35FED90EB872}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62C1E2F-C94F-40C3-A706-17602DE60785}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +814,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -654,18 +824,16 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20EB87-C8E7-4780-A522-DF837644B312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5069C-A044-474D-8AAE-B63F49F416ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,11 @@
     <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId14"/>
     <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId15"/>
     <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId16"/>
+    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId17"/>
+    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId18"/>
+    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId19"/>
+    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId20"/>
+    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Raman</t>
   </si>
@@ -124,6 +129,27 @@
   </si>
   <si>
     <t>Pole Replacement</t>
+  </si>
+  <si>
+    <t>TypeHistoricalSearchBar</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>TypeHistoricalSearchBarInvalid</t>
+  </si>
+  <si>
+    <t>AutomatedTesting</t>
+  </si>
+  <si>
+    <t>TypeHistoricalSearchBarSort</t>
+  </si>
+  <si>
+    <t>TypeHistoricalClearSearch</t>
+  </si>
+  <si>
+    <t>TypeExternal</t>
   </si>
 </sst>
 </file>
@@ -650,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -670,6 +696,87 @@
       </c>
       <c r="B2" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -722,6 +829,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE935E1F-C13E-4D89-A48B-2CD047CED7EB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1169F-C9EA-4258-B52F-834B03470238}">
   <dimension ref="A1:C2"/>

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\Osmose360Dev\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5069C-A044-474D-8AAE-B63F49F416ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A46B8-D09F-47CB-9C5B-FB92B49C134A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Raman</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>TypeExternal</t>
+  </si>
+  <si>
+    <t>varun.magadiranganath@centurylink.com</t>
+  </si>
+  <si>
+    <t>Qwerty1@</t>
   </si>
 </sst>
 </file>
@@ -788,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +817,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -822,8 +828,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{07147E0C-2C00-49B1-AB63-BC0F9B4B4701}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -861,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\Osmose360Test\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5069C-A044-474D-8AAE-B63F49F416ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA5880-692A-4BE7-96F0-C44842AD8BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Raman</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>TypeExternal</t>
+  </si>
+  <si>
+    <t>Qwerty1@</t>
+  </si>
+  <si>
+    <t>varun.magadiranganath@centurylink.com</t>
   </si>
 </sst>
 </file>
@@ -788,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,10 +817,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -861,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE5069C-A044-474D-8AAE-B63F49F416ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3162845-91D2-4348-852F-AC31E1AE0D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -104,12 +104,6 @@
     <t>AskOsmoseSearch</t>
   </si>
   <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t>TypeJointUse</t>
-  </si>
-  <si>
     <t>Joint Use</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>TypeExternal</t>
+  </si>
+  <si>
+    <t>TypePoleReplacement</t>
+  </si>
+  <si>
+    <t>Indus</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DA5B9-7278-497C-93B8-35FED90EB872}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -589,7 +589,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -602,19 +602,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -634,12 +634,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -659,12 +659,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -684,18 +684,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -718,12 +718,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -743,12 +743,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -771,12 +771,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -844,12 +844,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -861,18 +861,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -1,39 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3162845-91D2-4348-852F-AC31E1AE0D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F165C2-7B34-460D-8672-6DA7AEDFA4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="loginTest" sheetId="1" r:id="rId2"/>
-    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId3"/>
-    <sheet name="clickOnOuLink" sheetId="5" r:id="rId4"/>
-    <sheet name="verifyTheSearch" sheetId="6" r:id="rId5"/>
-    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId6"/>
-    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId7"/>
-    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId8"/>
-    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId9"/>
-    <sheet name="CreateAccountTest" sheetId="4" r:id="rId10"/>
-    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId11"/>
-    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId12"/>
-    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId13"/>
-    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId14"/>
-    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId15"/>
-    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId16"/>
-    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId17"/>
-    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId18"/>
-    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId19"/>
-    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId20"/>
-    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId21"/>
+    <sheet name="ocalcloginTestNormal" sheetId="23" r:id="rId3"/>
+    <sheet name="ocalcloginTestAdmin" sheetId="24" r:id="rId4"/>
+    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId5"/>
+    <sheet name="clickOnOuLink" sheetId="5" r:id="rId6"/>
+    <sheet name="verifyTheSearch" sheetId="6" r:id="rId7"/>
+    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId8"/>
+    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId9"/>
+    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId10"/>
+    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId11"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId12"/>
+    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId13"/>
+    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId14"/>
+    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId15"/>
+    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId16"/>
+    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId17"/>
+    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId18"/>
+    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId19"/>
+    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId20"/>
+    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId21"/>
+    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId22"/>
+    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Raman</t>
   </si>
@@ -150,6 +152,18 @@
   </si>
   <si>
     <t>Indus</t>
+  </si>
+  <si>
+    <t>shanthling.kodli@centurylink.com</t>
+  </si>
+  <si>
+    <t>Denver*235</t>
+  </si>
+  <si>
+    <t>prime@12345</t>
+  </si>
+  <si>
+    <t>mohammedjunaid.kaikade@centurylink.com</t>
   </si>
 </sst>
 </file>
@@ -520,6 +534,57 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -547,7 +612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D0FF7-8259-4C88-ABF2-E9337205FC0D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -572,11 +637,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DA5B9-7278-497C-93B8-35FED90EB872}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62C1E2F-C94F-40C3-A706-17602DE60785}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -622,7 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -647,7 +712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -672,7 +737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -703,7 +768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -719,59 +784,6 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -789,7 +801,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,6 +842,59 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE935E1F-C13E-4D89-A48B-2CD047CED7EB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -857,7 +922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -881,6 +946,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B7B6B-70F3-4A49-967B-A759A4B063A2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDD2788-B65D-460D-8E6B-4273352A50D8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1169F-C9EA-4258-B52F-834B03470238}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -925,7 +1060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1348E-0969-4054-A1EA-4AAF0CCB32EA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -970,7 +1105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -998,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1024,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1045,55 +1180,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -1,39 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\Osmose360Dev\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A46B8-D09F-47CB-9C5B-FB92B49C134A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F165C2-7B34-460D-8672-6DA7AEDFA4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="loginTest" sheetId="1" r:id="rId2"/>
-    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId3"/>
-    <sheet name="clickOnOuLink" sheetId="5" r:id="rId4"/>
-    <sheet name="verifyTheSearch" sheetId="6" r:id="rId5"/>
-    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId6"/>
-    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId7"/>
-    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId8"/>
-    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId9"/>
-    <sheet name="CreateAccountTest" sheetId="4" r:id="rId10"/>
-    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId11"/>
-    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId12"/>
-    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId13"/>
-    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId14"/>
-    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId15"/>
-    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId16"/>
-    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId17"/>
-    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId18"/>
-    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId19"/>
-    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId20"/>
-    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId21"/>
+    <sheet name="ocalcloginTestNormal" sheetId="23" r:id="rId3"/>
+    <sheet name="ocalcloginTestAdmin" sheetId="24" r:id="rId4"/>
+    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId5"/>
+    <sheet name="clickOnOuLink" sheetId="5" r:id="rId6"/>
+    <sheet name="verifyTheSearch" sheetId="6" r:id="rId7"/>
+    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId8"/>
+    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId9"/>
+    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId10"/>
+    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId11"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId12"/>
+    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId13"/>
+    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId14"/>
+    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId15"/>
+    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId16"/>
+    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId17"/>
+    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId18"/>
+    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId19"/>
+    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId20"/>
+    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId21"/>
+    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId22"/>
+    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Raman</t>
   </si>
@@ -104,12 +106,6 @@
     <t>AskOsmoseSearch</t>
   </si>
   <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t>TypeJointUse</t>
-  </si>
-  <si>
     <t>Joint Use</t>
   </si>
   <si>
@@ -152,10 +148,22 @@
     <t>TypeExternal</t>
   </si>
   <si>
-    <t>varun.magadiranganath@centurylink.com</t>
-  </si>
-  <si>
-    <t>Qwerty1@</t>
+    <t>TypePoleReplacement</t>
+  </si>
+  <si>
+    <t>Indus</t>
+  </si>
+  <si>
+    <t>shanthling.kodli@centurylink.com</t>
+  </si>
+  <si>
+    <t>Denver*235</t>
+  </si>
+  <si>
+    <t>prime@12345</t>
+  </si>
+  <si>
+    <t>mohammedjunaid.kaikade@centurylink.com</t>
   </si>
 </sst>
 </file>
@@ -526,6 +534,57 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -553,7 +612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D0FF7-8259-4C88-ABF2-E9337205FC0D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -578,7 +637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DA5B9-7278-497C-93B8-35FED90EB872}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -595,6 +654,56 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62C1E2F-C94F-40C3-A706-17602DE60785}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -603,82 +712,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62C1E2F-C94F-40C3-A706-17602DE60785}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -690,99 +749,46 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -794,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +823,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -828,14 +834,67 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{07147E0C-2C00-49B1-AB63-BC0F9B4B4701}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE935E1F-C13E-4D89-A48B-2CD047CED7EB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -850,20 +909,20 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -873,12 +932,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -887,6 +946,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B7B6B-70F3-4A49-967B-A759A4B063A2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDD2788-B65D-460D-8E6B-4273352A50D8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1169F-C9EA-4258-B52F-834B03470238}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -931,7 +1060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1348E-0969-4054-A1EA-4AAF0CCB32EA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -976,7 +1105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1004,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1030,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1051,55 +1180,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\Osmose360Test\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA5880-692A-4BE7-96F0-C44842AD8BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32013628-A628-4DB8-8C4F-876696680506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Raman</t>
   </si>
@@ -77,12 +77,6 @@
     <t>accountname</t>
   </si>
   <si>
-    <t>rajesh.yadav@centurylink.com</t>
-  </si>
-  <si>
-    <t>Hyde@2317</t>
-  </si>
-  <si>
     <t>Guy Markers</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>AskOsmoseSearch</t>
   </si>
   <si>
-    <t>Ind</t>
-  </si>
-  <si>
     <t>TypeJointUse</t>
   </si>
   <si>
@@ -156,6 +147,9 @@
   </si>
   <si>
     <t>varun.magadiranganath@centurylink.com</t>
+  </si>
+  <si>
+    <t>Indus</t>
   </si>
 </sst>
 </file>
@@ -565,12 +559,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DA5B9-7278-497C-93B8-35FED90EB872}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -590,12 +584,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -615,12 +609,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -640,12 +634,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -665,12 +659,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -690,18 +684,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -724,12 +718,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -749,12 +743,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -777,12 +771,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -794,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +811,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -850,12 +844,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -873,12 +867,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +885,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,10 +907,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -924,8 +918,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8A40DF63-AF6D-471F-B9A2-A60579849189}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{81A83BEA-5D4B-471A-9CE5-8526A9C1E2C1}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{08922442-BAC4-41E4-8F8D-EE839C6D63AB}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{98789943-737E-447D-88DB-E8F2540A2966}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -936,7 +930,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,10 +952,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -969,8 +963,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{696EFC22-8A24-44EC-8B50-6C3A402E2390}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{061FD117-1363-4740-A599-AAB7FD469D67}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2A2C776B-FD47-420F-B9B4-02D932131962}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{B68381D2-4CF1-4952-8947-5A444FD212C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -990,12 +984,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1017,12 +1011,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1040,12 +1034,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1066,12 +1060,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1091,12 +1085,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F165C2-7B34-460D-8672-6DA7AEDFA4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFCEE2-8DFB-4D80-9BE2-1749E1231699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="loginTest" sheetId="1" r:id="rId2"/>
     <sheet name="ocalcloginTestNormal" sheetId="23" r:id="rId3"/>
     <sheet name="ocalcloginTestAdmin" sheetId="24" r:id="rId4"/>
-    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId5"/>
-    <sheet name="clickOnOuLink" sheetId="5" r:id="rId6"/>
-    <sheet name="verifyTheSearch" sheetId="6" r:id="rId7"/>
-    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId8"/>
-    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId9"/>
-    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId10"/>
-    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId11"/>
-    <sheet name="CreateAccountTest" sheetId="4" r:id="rId12"/>
-    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId13"/>
-    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId14"/>
-    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId15"/>
-    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId16"/>
-    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId17"/>
-    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId18"/>
-    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId19"/>
-    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId20"/>
-    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId21"/>
-    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId22"/>
-    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId23"/>
+    <sheet name="jointUseloginTestAllRoles" sheetId="25" r:id="rId5"/>
+    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId6"/>
+    <sheet name="clickOnOuLink" sheetId="5" r:id="rId7"/>
+    <sheet name="verifyTheSearch" sheetId="6" r:id="rId8"/>
+    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId9"/>
+    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId10"/>
+    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId11"/>
+    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId12"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId13"/>
+    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId14"/>
+    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId15"/>
+    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId16"/>
+    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId17"/>
+    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId18"/>
+    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId19"/>
+    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId20"/>
+    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId21"/>
+    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId22"/>
+    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId23"/>
+    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Raman</t>
   </si>
@@ -164,6 +165,12 @@
   </si>
   <si>
     <t>mohammedjunaid.kaikade@centurylink.com</t>
+  </si>
+  <si>
+    <t>ts.allroles@gmail.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
   </si>
 </sst>
 </file>
@@ -534,6 +541,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -559,7 +589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -584,7 +614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -612,7 +642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D0FF7-8259-4C88-ABF2-E9337205FC0D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -637,7 +667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DA5B9-7278-497C-93B8-35FED90EB872}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -662,7 +692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62C1E2F-C94F-40C3-A706-17602DE60785}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -687,7 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -712,7 +742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -737,7 +767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -761,34 +791,6 @@
       </c>
       <c r="B2" t="s">
         <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -842,6 +844,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -866,7 +896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -894,7 +924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE935E1F-C13E-4D89-A48B-2CD047CED7EB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -922,7 +952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -949,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B7B6B-70F3-4A49-967B-A759A4B063A2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -985,7 +1015,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1046,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0378AE57-8E4B-4ADE-9C6A-2B26622CCFA6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1169F-C9EA-4258-B52F-834B03470238}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1060,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1348E-0969-4054-A1EA-4AAF0CCB32EA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1105,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1133,7 +1199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1157,27 +1223,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EFCEE2-8DFB-4D80-9BE2-1749E1231699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A88821-4967-4170-BEE7-813D28DB7D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="loginTest" sheetId="1" r:id="rId2"/>
     <sheet name="ocalcloginTestNormal" sheetId="23" r:id="rId3"/>
     <sheet name="ocalcloginTestAdmin" sheetId="24" r:id="rId4"/>
-    <sheet name="jointUseloginTestAllRoles" sheetId="25" r:id="rId5"/>
+    <sheet name="jointUseloginTestSubmitter" sheetId="25" r:id="rId5"/>
     <sheet name="verifyTheProductLink" sheetId="7" r:id="rId6"/>
     <sheet name="clickOnOuLink" sheetId="5" r:id="rId7"/>
     <sheet name="verifyTheSearch" sheetId="6" r:id="rId8"/>
@@ -167,10 +167,10 @@
     <t>mohammedjunaid.kaikade@centurylink.com</t>
   </si>
   <si>
-    <t>ts.allroles@gmail.com</t>
-  </si>
-  <si>
     <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>ts.submitter@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1050,12 +1050,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1068,16 +1068,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:ts.submitter@gmail.com" xr:uid="{2D2CFC26-10A4-4D0A-9261-789EB6A01136}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -8,35 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A88821-4967-4170-BEE7-813D28DB7D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7703154-E9A6-4865-8374-348E6BC1AD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="loginTest" sheetId="1" r:id="rId2"/>
     <sheet name="ocalcloginTestNormal" sheetId="23" r:id="rId3"/>
     <sheet name="ocalcloginTestAdmin" sheetId="24" r:id="rId4"/>
-    <sheet name="jointUseloginTestSubmitter" sheetId="25" r:id="rId5"/>
-    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId6"/>
-    <sheet name="clickOnOuLink" sheetId="5" r:id="rId7"/>
-    <sheet name="verifyTheSearch" sheetId="6" r:id="rId8"/>
-    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId9"/>
-    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId10"/>
-    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId11"/>
-    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId12"/>
-    <sheet name="CreateAccountTest" sheetId="4" r:id="rId13"/>
-    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId14"/>
-    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId15"/>
-    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId16"/>
-    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId17"/>
-    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId18"/>
-    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId19"/>
-    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId20"/>
-    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId21"/>
-    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId22"/>
-    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId23"/>
-    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId24"/>
+    <sheet name="jointUseloginTestAllRoles" sheetId="26" r:id="rId5"/>
+    <sheet name="jointUseloginTestSubmitter" sheetId="25" r:id="rId6"/>
+    <sheet name="jointUseloginDataProcessor" sheetId="27" r:id="rId7"/>
+    <sheet name="jointUseloginTestProjectManager" sheetId="28" r:id="rId8"/>
+    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId9"/>
+    <sheet name="clickOnOuLink" sheetId="5" r:id="rId10"/>
+    <sheet name="verifyTheSearch" sheetId="6" r:id="rId11"/>
+    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId12"/>
+    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId13"/>
+    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId14"/>
+    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId15"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId16"/>
+    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId17"/>
+    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId18"/>
+    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId19"/>
+    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId20"/>
+    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId21"/>
+    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId22"/>
+    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId23"/>
+    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId24"/>
+    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId25"/>
+    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId26"/>
+    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId27"/>
+    <sheet name="verifyAddWiredNewAttachment" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Raman</t>
   </si>
@@ -171,6 +175,39 @@
   </si>
   <si>
     <t>ts.submitter@gmail.com</t>
+  </si>
+  <si>
+    <t>ts.allroles@gmail.com</t>
+  </si>
+  <si>
+    <t>dataprocessorrole@gmail.com</t>
+  </si>
+  <si>
+    <t>ts.projectmanagerrole@gmail.com</t>
+  </si>
+  <si>
+    <t>ApplicationName</t>
+  </si>
+  <si>
+    <t>AutomationTesting</t>
+  </si>
+  <si>
+    <t>Township</t>
+  </si>
+  <si>
+    <t>TestTownShip</t>
+  </si>
+  <si>
+    <t>NumberOfStructures</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TestCable</t>
+  </si>
+  <si>
+    <t>CableStrandName</t>
   </si>
 </sst>
 </file>
@@ -215,9 +252,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,6 +580,105 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1348E-0969-4054-A1EA-4AAF0CCB32EA}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{696EFC22-8A24-44EC-8B50-6C3A402E2390}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{061FD117-1363-4740-A599-AAB7FD469D67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -563,7 +701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -589,7 +727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -614,7 +752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -642,7 +780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D0FF7-8259-4C88-ABF2-E9337205FC0D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -667,7 +805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DA5B9-7278-497C-93B8-35FED90EB872}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -692,7 +830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62C1E2F-C94F-40C3-A706-17602DE60785}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -709,87 +847,6 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -844,6 +901,87 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -871,7 +1009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -896,7 +1034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -924,7 +1062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE935E1F-C13E-4D89-A48B-2CD047CED7EB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -952,7 +1090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -968,6 +1106,55 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ECD465-DEB9-4B33-8FC8-DD3CA672C138}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1046,10 +1233,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35267D3D-80FF-42ED-B3AB-0CFCF7A8CFC9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{362D9272-EB7E-4CA8-8685-0DB782593AED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0378AE57-8E4B-4ADE-9C6A-2B26622CCFA6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1084,7 +1310,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EBCDE8-5542-4B89-9AB8-E8D5E64C7E03}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{55E2AA6B-0482-48C9-9A01-D2EB3371156F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481ADCE-D1B9-4F2D-BD60-CE05F203389E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9558755F-EB86-4B61-B06B-FA631F81A122}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1169F-C9EA-4258-B52F-834B03470238}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1127,103 +1429,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1348E-0969-4054-A1EA-4AAF0CCB32EA}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{696EFC22-8A24-44EC-8B50-6C3A402E2390}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{061FD117-1363-4740-A599-AAB7FD469D67}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/com/OSMOSE/excel/testdata.xlsx
+++ b/src/test/resources/com/OSMOSE/excel/testdata.xlsx
@@ -1,39 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC38373\UI-Automation_New\src\test\resources\com\OSMOSE\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3162845-91D2-4348-852F-AC31E1AE0D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7703154-E9A6-4865-8374-348E6BC1AD40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
     <sheet name="loginTest" sheetId="1" r:id="rId2"/>
-    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId3"/>
-    <sheet name="clickOnOuLink" sheetId="5" r:id="rId4"/>
-    <sheet name="verifyTheSearch" sheetId="6" r:id="rId5"/>
-    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId6"/>
-    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId7"/>
-    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId8"/>
-    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId9"/>
-    <sheet name="CreateAccountTest" sheetId="4" r:id="rId10"/>
-    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId11"/>
-    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId12"/>
-    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId13"/>
-    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId14"/>
-    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId15"/>
-    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId16"/>
-    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId17"/>
-    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId18"/>
-    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId19"/>
-    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId20"/>
-    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId21"/>
+    <sheet name="ocalcloginTestNormal" sheetId="23" r:id="rId3"/>
+    <sheet name="ocalcloginTestAdmin" sheetId="24" r:id="rId4"/>
+    <sheet name="jointUseloginTestAllRoles" sheetId="26" r:id="rId5"/>
+    <sheet name="jointUseloginTestSubmitter" sheetId="25" r:id="rId6"/>
+    <sheet name="jointUseloginDataProcessor" sheetId="27" r:id="rId7"/>
+    <sheet name="jointUseloginTestProjectManager" sheetId="28" r:id="rId8"/>
+    <sheet name="verifyTheProductLink" sheetId="7" r:id="rId9"/>
+    <sheet name="clickOnOuLink" sheetId="5" r:id="rId10"/>
+    <sheet name="verifyTheSearch" sheetId="6" r:id="rId11"/>
+    <sheet name="verifyTheSearchFullname" sheetId="9" r:id="rId12"/>
+    <sheet name="verifyTheSearchOneAlphabet" sheetId="10" r:id="rId13"/>
+    <sheet name="verifyTheValidationmessage" sheetId="11" r:id="rId14"/>
+    <sheet name="verifyTheSearchfirstname" sheetId="8" r:id="rId15"/>
+    <sheet name="CreateAccountTest" sheetId="4" r:id="rId16"/>
+    <sheet name="verifyTheSearchCrossButton" sheetId="12" r:id="rId17"/>
+    <sheet name="verifyDynamicDropdown" sheetId="13" r:id="rId18"/>
+    <sheet name="verifySearchResultsOnTyping" sheetId="14" r:id="rId19"/>
+    <sheet name="verifyClearButtonOnTyping" sheetId="15" r:id="rId20"/>
+    <sheet name="verifyNoResultsFoundMessage" sheetId="16" r:id="rId21"/>
+    <sheet name="verifySearchTextUpdation" sheetId="17" r:id="rId22"/>
+    <sheet name="verifySearchWebinarsHistorical" sheetId="18" r:id="rId23"/>
+    <sheet name="verifyInvalidSearchHistorical" sheetId="19" r:id="rId24"/>
+    <sheet name="verifySortWebinarsHistorical" sheetId="20" r:id="rId25"/>
+    <sheet name="verifyClearSearchHistorical" sheetId="21" r:id="rId26"/>
+    <sheet name="verifyExternalVideo" sheetId="22" r:id="rId27"/>
+    <sheet name="verifyAddWiredNewAttachment" sheetId="29" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Raman</t>
   </si>
@@ -150,6 +157,57 @@
   </si>
   <si>
     <t>Indus</t>
+  </si>
+  <si>
+    <t>shanthling.kodli@centurylink.com</t>
+  </si>
+  <si>
+    <t>Denver*235</t>
+  </si>
+  <si>
+    <t>prime@12345</t>
+  </si>
+  <si>
+    <t>mohammedjunaid.kaikade@centurylink.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>ts.submitter@gmail.com</t>
+  </si>
+  <si>
+    <t>ts.allroles@gmail.com</t>
+  </si>
+  <si>
+    <t>dataprocessorrole@gmail.com</t>
+  </si>
+  <si>
+    <t>ts.projectmanagerrole@gmail.com</t>
+  </si>
+  <si>
+    <t>ApplicationName</t>
+  </si>
+  <si>
+    <t>AutomationTesting</t>
+  </si>
+  <si>
+    <t>Township</t>
+  </si>
+  <si>
+    <t>TestTownShip</t>
+  </si>
+  <si>
+    <t>NumberOfStructures</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TestCable</t>
+  </si>
+  <si>
+    <t>CableStrandName</t>
   </si>
 </sst>
 </file>
@@ -194,9 +252,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,6 +580,179 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1348E-0969-4054-A1EA-4AAF0CCB32EA}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{696EFC22-8A24-44EC-8B50-6C3A402E2390}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{061FD117-1363-4740-A599-AAB7FD469D67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -547,7 +780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D0FF7-8259-4C88-ABF2-E9337205FC0D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -572,11 +805,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46DA5B9-7278-497C-93B8-35FED90EB872}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62C1E2F-C94F-40C3-A706-17602DE60785}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -615,168 +848,6 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +860,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,6 +901,168 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21843DF4-A28F-40DD-9ED6-86F66E6C735F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2497EB80-35A2-4AAD-9C1D-AEDB0EC50212}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B1B0C-F841-42B8-A0C1-21DBCE8A2DC8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C461882E-5B05-4789-AF09-7737EACBFC43}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B726-6BA8-4E09-89C1-3903738DA995}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C27DB-E6DA-4A1F-9493-A165D018979A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE935E1F-C13E-4D89-A48B-2CD047CED7EB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -857,7 +1090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42A5D42-48F0-4023-83D7-D53E3AC6AFF1}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -880,7 +1113,280 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ECD465-DEB9-4B33-8FC8-DD3CA672C138}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157B7B6B-70F3-4A49-967B-A759A4B063A2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDD2788-B65D-460D-8E6B-4273352A50D8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35267D3D-80FF-42ED-B3AB-0CFCF7A8CFC9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{362D9272-EB7E-4CA8-8685-0DB782593AED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0378AE57-8E4B-4ADE-9C6A-2B26622CCFA6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:ts.submitter@gmail.com" xr:uid="{2D2CFC26-10A4-4D0A-9261-789EB6A01136}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EBCDE8-5542-4B89-9AB8-E8D5E64C7E03}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{55E2AA6B-0482-48C9-9A01-D2EB3371156F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481ADCE-D1B9-4F2D-BD60-CE05F203389E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9558755F-EB86-4B61-B06B-FA631F81A122}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1169F-C9EA-4258-B52F-834B03470238}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -923,177 +1429,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD1348E-0969-4054-A1EA-4AAF0CCB32EA}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{696EFC22-8A24-44EC-8B50-6C3A402E2390}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{061FD117-1363-4740-A599-AAB7FD469D67}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E0D8D1-9273-4970-9251-8B99B2980E37}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF90B1B-57B5-4414-AC3B-569DC6A7BEA8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05950B89-E92A-4646-9694-E3FEC191FBC5}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C5F3C-EFE8-4B4F-A0A0-153F52BCD7A9}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D2C47-00AC-4DF8-AF6F-D0EF06E8D38F}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>